--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,27 +5,33 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20E579E-9794-4904-ADF4-EAB8C5703B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473FC0AA-F815-49B5-BADD-8E44671D9C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
-    <sheet name="GenerateDocument" sheetId="1" r:id="rId2"/>
-    <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId3"/>
-    <sheet name="CourtReports" sheetId="8" r:id="rId4"/>
-    <sheet name="AmendPetition" sheetId="12" r:id="rId5"/>
-    <sheet name="CourtsDocuments" sheetId="13" r:id="rId6"/>
-    <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId7"/>
-    <sheet name="DocumentDistributions" sheetId="10" r:id="rId8"/>
-    <sheet name="RelatedReferrals" sheetId="11" r:id="rId9"/>
-    <sheet name="GeneratePetition" sheetId="2" r:id="rId10"/>
-    <sheet name="PetitionAllegation" sheetId="3" r:id="rId11"/>
-    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId12"/>
-    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId13"/>
+    <sheet name="CourtWarrents" sheetId="15" r:id="rId2"/>
+    <sheet name="CourtHearings" sheetId="16" r:id="rId3"/>
+    <sheet name="Participants" sheetId="20" r:id="rId4"/>
+    <sheet name="Petition" sheetId="17" r:id="rId5"/>
+    <sheet name="AdHocActivity" sheetId="18" r:id="rId6"/>
+    <sheet name="GenerateDocument" sheetId="1" r:id="rId7"/>
+    <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId8"/>
+    <sheet name="CourtReports" sheetId="8" r:id="rId9"/>
+    <sheet name="AmendPetition" sheetId="12" r:id="rId10"/>
+    <sheet name="CourtsDocuments" sheetId="13" r:id="rId11"/>
+    <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId12"/>
+    <sheet name="DocumentDistributions" sheetId="10" r:id="rId13"/>
+    <sheet name="RelatedReferrals" sheetId="11" r:id="rId14"/>
+    <sheet name="GeneratePetition" sheetId="2" r:id="rId15"/>
+    <sheet name="PetitionAllegation" sheetId="3" r:id="rId16"/>
+    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId17"/>
+    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId18"/>
+    <sheet name="CourtWorkItems" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="236">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -422,9 +428,6 @@
     <t>ASSIGNED_SOCIAL_WORKER</t>
   </si>
   <si>
-    <t>ASSIGNED_SOCIAL_WORKER_LINK</t>
-  </si>
-  <si>
     <t>CONTACT_METHOD</t>
   </si>
   <si>
@@ -435,6 +438,330 @@
   </si>
   <si>
     <t>SYSTEM_CLOSED</t>
+  </si>
+  <si>
+    <t>CAPTURE_COURT_CASE_ID</t>
+  </si>
+  <si>
+    <t>testT4240</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>ASSIGNED_TO</t>
+  </si>
+  <si>
+    <t>WARRANT_SUBMISSION_DATE_TIME</t>
+  </si>
+  <si>
+    <t>FILING_METHOD</t>
+  </si>
+  <si>
+    <t>COURT_RULING</t>
+  </si>
+  <si>
+    <t>APPROVED_AFTER_HOURS</t>
+  </si>
+  <si>
+    <t>COURT_WARRENT_NUMBER</t>
+  </si>
+  <si>
+    <t>HOBBS_SEALED</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CLONING</t>
+  </si>
+  <si>
+    <t>EXPIRATION_DATE</t>
+  </si>
+  <si>
+    <t>WARRANT_RECALLED_DATE</t>
+  </si>
+  <si>
+    <t>RECALLED_METHOD</t>
+  </si>
+  <si>
+    <t>COURT_NOTIFIED</t>
+  </si>
+  <si>
+    <t>COURT_NOTIFIED_DATE</t>
+  </si>
+  <si>
+    <t>CAPTURE_WARRENT_ID</t>
+  </si>
+  <si>
+    <t>VIEWALL</t>
+  </si>
+  <si>
+    <t>DENIAL_DATE_TIME</t>
+  </si>
+  <si>
+    <t>SUBTYPE</t>
+  </si>
+  <si>
+    <t>HEARING_DATE_TIME</t>
+  </si>
+  <si>
+    <t>OTHER_HEARING_SUBTYPE</t>
+  </si>
+  <si>
+    <t>CAPTURE_HEARING_ID</t>
+  </si>
+  <si>
+    <t>HEARING_ID</t>
+  </si>
+  <si>
+    <t>REASON_HEARING_WAS_VACATED</t>
+  </si>
+  <si>
+    <t>DATE_HEARING_WAS_VACATED</t>
+  </si>
+  <si>
+    <t>PETITION_TYPE</t>
+  </si>
+  <si>
+    <t>PETITION_STATUS</t>
+  </si>
+  <si>
+    <t>AMENDMENT_DETAILS</t>
+  </si>
+  <si>
+    <t>AMENDMENT_DATE</t>
+  </si>
+  <si>
+    <t>DATE_OF_RETURN_AMENDED_PETITION_TOCOURT</t>
+  </si>
+  <si>
+    <t>AMENDED_PETITON_SUBMITTED_BY</t>
+  </si>
+  <si>
+    <t>AMENDED_PRTITION_SUBMITTED_DATE</t>
+  </si>
+  <si>
+    <t>FILING_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>DUE_DATE_TO_SUBMIT_PETITION_TO_COURT</t>
+  </si>
+  <si>
+    <t>ICWA_100_RECEIVED_DATE</t>
+  </si>
+  <si>
+    <t>ICWA_101_RECEIVED_DATE</t>
+  </si>
+  <si>
+    <t>PETITION_WORK_ITEM_ID</t>
+  </si>
+  <si>
+    <t>testT</t>
+  </si>
+  <si>
+    <t>WIC_300</t>
+  </si>
+  <si>
+    <t>Open-Created</t>
+  </si>
+  <si>
+    <t>AdHOC_ACTIVITY_TYPE</t>
+  </si>
+  <si>
+    <t>AdHOC_ACTIVITY_STATUS</t>
+  </si>
+  <si>
+    <t>HEARING_ORDERED</t>
+  </si>
+  <si>
+    <t>SUPERIOR_COURT</t>
+  </si>
+  <si>
+    <t>JUDICIAL_OFFICER_TITLE</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>JUDICIAL_OFFICER</t>
+  </si>
+  <si>
+    <t>REQUEST_DATE</t>
+  </si>
+  <si>
+    <t>OFFICIAL_MINUTE_ORDERS_RELEASED_DATE</t>
+  </si>
+  <si>
+    <t>OFFICIAL_MINUTE_ORDERS_RECEIVED_BY_CARES</t>
+  </si>
+  <si>
+    <t>ADHOC_WORK_ITEM_ID</t>
+  </si>
+  <si>
+    <t>Ex Parte Request</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEMS</t>
+  </si>
+  <si>
+    <t>Runaway or Abducted Warrant</t>
+  </si>
+  <si>
+    <t>autoCMworker451 Ccost</t>
+  </si>
+  <si>
+    <t>Continued Detention Hearing</t>
+  </si>
+  <si>
+    <t>COURT_CASE_ID</t>
+  </si>
+  <si>
+    <t>COURT_CASE_ID1</t>
+  </si>
+  <si>
+    <t>RELATED_TAB</t>
+  </si>
+  <si>
+    <t>DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Denied</t>
+  </si>
+  <si>
+    <t>OFFICIAL_NEXT_HEARING_DATE_AND_TIME_VERIFY</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTESTED_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTESTEDBY_VERIFY</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTINUANCE_VERIFY</t>
+  </si>
+  <si>
+    <t>CONTINUANCE_HEARING_REQUESTBY_VERIFY</t>
+  </si>
+  <si>
+    <t>OFFICIAL_NEXT_HEARING_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTESTED</t>
+  </si>
+  <si>
+    <t>CONTESTEDBY</t>
+  </si>
+  <si>
+    <t>CONTINUANCE_HEARING_REQUESTBY</t>
+  </si>
+  <si>
+    <t>HEARING_INFORMATION</t>
+  </si>
+  <si>
+    <t>SUPERIOR_COURT_INFORMATION</t>
+  </si>
+  <si>
+    <t>SUPERIOR_COURT_ADDRESS_INFORMATION</t>
+  </si>
+  <si>
+    <t>HEARING_DETAILS_TAB</t>
+  </si>
+  <si>
+    <t>VERIFY_ISSUE_TOAST_MESSAGE</t>
+  </si>
+  <si>
+    <t>WARRENT_ID</t>
+  </si>
+  <si>
+    <t>HEARING_ID1</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>VERIFY_ISSUE_TOAST_MESSAGE2</t>
+  </si>
+  <si>
+    <t>Vacated</t>
+  </si>
+  <si>
+    <t>I wont tell</t>
+  </si>
+  <si>
+    <t>WARRENTS</t>
+  </si>
+  <si>
+    <t>PETITIONS</t>
+  </si>
+  <si>
+    <t>HEARINGS</t>
+  </si>
+  <si>
+    <t>AD_HOC_ACTIVITIES</t>
+  </si>
+  <si>
+    <t>PARTICIPANTS</t>
+  </si>
+  <si>
+    <t>CHILD_REN</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEM_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>VERIFY_PICK_FOCUS_CHILD</t>
+  </si>
+  <si>
+    <t>VERIFY_PICK_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>PICK_FOCUS_CHILD_BTN</t>
+  </si>
+  <si>
+    <t>ASSIGNED_SOCIALWORKER</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ID</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_PARTICIPANT_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ROLE_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY</t>
+  </si>
+  <si>
+    <t>PICK_PARTICIPANT_BTN</t>
+  </si>
+  <si>
+    <t>SELECT_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ID_VERIFY_WORKITEM</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_PARTICIPANT_VERIFY_WORKITEM</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ROLE_VERIFY_WORKITEM</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY_WORKITEM</t>
   </si>
 </sst>
 </file>
@@ -456,7 +783,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +793,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -490,6 +829,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956F4017-6A3B-4528-A576-ADBAA4CE45DC}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,16 +1165,21 @@
     <col min="9" max="9" width="34" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -870,10 +1217,10 @@
         <v>124</v>
       </c>
       <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
         <v>125</v>
-      </c>
-      <c r="N1" t="s">
-        <v>38</v>
       </c>
       <c r="O1" t="s">
         <v>126</v>
@@ -882,13 +1229,453 @@
         <v>127</v>
       </c>
       <c r="Q1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" t="s">
         <v>128</v>
       </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S1" t="s">
+        <v>187</v>
+      </c>
+      <c r="T1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" t="s">
+        <v>189</v>
+      </c>
+      <c r="V1" t="s">
+        <v>190</v>
+      </c>
+      <c r="W1" t="s">
+        <v>207</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="31.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -898,25 +1685,409 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C9281-95B1-4261-8698-031FB833C8F1}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" customWidth="1"/>
+    <col min="10" max="10" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="26.54296875" style="4" customWidth="1"/>
+    <col min="12" max="15" width="41.1796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="40.1796875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="44.54296875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" customWidth="1"/>
+    <col min="12" max="12" width="29.453125" customWidth="1"/>
+    <col min="13" max="13" width="26.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680FC0-F632-45A0-B6DA-7F92240C0A87}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8EB240-6841-4BB5-96BA-BA7B1D39BA18}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -994,7 +2165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1082,7 +2253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -1214,12 +2385,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78A5E-5873-467A-B8DB-F33589FCB780}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1306,7 +2477,1356 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A754B-6C4D-4F46-AFB2-D2A6709D56D1}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29C7602-AA01-44A6-9119-1E036C8353B7}">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" t="s">
+        <v>208</v>
+      </c>
+      <c r="W1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>208</v>
+      </c>
+      <c r="W3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
+  <dimension ref="A1:AD5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="38.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T1" t="s">
+        <v>196</v>
+      </c>
+      <c r="U1" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1" t="s">
+        <v>198</v>
+      </c>
+      <c r="W1" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EE385F-D59F-41FF-8669-8D9191156315}">
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="51.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T1" t="s">
+        <v>232</v>
+      </c>
+      <c r="U1" t="s">
+        <v>233</v>
+      </c>
+      <c r="V1" t="s">
+        <v>234</v>
+      </c>
+      <c r="W1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="25.08984375" customWidth="1"/>
+    <col min="21" max="21" width="15.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53F1CC-8316-4D5B-AB93-2C2C643381EB}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="23.36328125" customWidth="1"/>
+    <col min="6" max="6" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.08984375" customWidth="1"/>
+    <col min="16" max="16" width="21.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1435,7 +3955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0AE46-36C8-4825-95FA-018986A6B0B5}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
@@ -1564,7 +4084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
   <dimension ref="A1:W2"/>
   <sheetViews>
@@ -1681,472 +4201,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="31.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C9281-95B1-4261-8698-031FB833C8F1}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="37" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="26.54296875" style="4" customWidth="1"/>
-    <col min="12" max="15" width="41.1796875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="40.1796875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="44.54296875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" customWidth="1"/>
-    <col min="8" max="8" width="28.453125" customWidth="1"/>
-    <col min="12" max="12" width="29.453125" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680FC0-F632-45A0-B6DA-7F92240C0A87}">
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="19.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" customWidth="1"/>
-    <col min="8" max="8" width="27.453125" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2367,20 +4428,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2405,9 +4465,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473FC0AA-F815-49B5-BADD-8E44671D9C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94994E72-B5D5-4D1F-A587-6B5E5DE769C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="236">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -728,9 +728,6 @@
     <t>PICK_FOCUS_CHILD_BTN</t>
   </si>
   <si>
-    <t>ASSIGNED_SOCIALWORKER</t>
-  </si>
-  <si>
     <t>COURT_WORKITEM_PARTICIPANT_ID</t>
   </si>
   <si>
@@ -762,6 +759,9 @@
   </si>
   <si>
     <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY_WORKITEM</t>
+  </si>
+  <si>
+    <t>SELECT_CHILDREN</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956F4017-6A3B-4528-A576-ADBAA4CE45DC}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3329,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EE385F-D59F-41FF-8669-8D9191156315}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3351,6 +3351,12 @@
     <col min="14" max="14" width="48.453125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="41.7265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="59.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.453125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="51.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3383,46 +3389,46 @@
         <v>223</v>
       </c>
       <c r="J1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="K1" t="s">
         <v>36</v>
       </c>
       <c r="L1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" t="s">
         <v>225</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>226</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>227</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>228</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>229</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>230</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" t="s">
         <v>231</v>
       </c>
-      <c r="S1" t="s">
-        <v>225</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>232</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>233</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>234</v>
-      </c>
-      <c r="W1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -3522,6 +3528,9 @@
         <v>10</v>
       </c>
       <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -4202,6 +4211,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4210,7 +4229,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -4427,17 +4446,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4445,7 +4464,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4464,16 +4483,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94994E72-B5D5-4D1F-A587-6B5E5DE769C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF165A0-6F37-4E73-8A52-1FFA635878ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="236">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1148,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956F4017-6A3B-4528-A576-ADBAA4CE45DC}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2836,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2846,7 +2846,7 @@
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
@@ -2859,7 +2859,18 @@
     <col min="15" max="15" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="30.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="38.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3311,13 +3322,13 @@
         <v>12</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3329,8 +3340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EE385F-D59F-41FF-8669-8D9191156315}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3537,7 +3548,7 @@
         <v>9</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>10</v>
@@ -3554,8 +3565,11 @@
       <c r="Q3" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="R3" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="S3" s="9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>10</v>
@@ -4211,25 +4225,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -4446,25 +4441,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4483,6 +4479,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF165A0-6F37-4E73-8A52-1FFA635878ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2B3616-D4DD-4FA1-97F4-CE42FB631E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="236">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1780,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1878,7 +1878,9 @@
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -2836,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2B3616-D4DD-4FA1-97F4-CE42FB631E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECC771C-FC32-451C-8DCD-86CA50FE8A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="240">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -762,6 +762,18 @@
   </si>
   <si>
     <t>SELECT_CHILDREN</t>
+  </si>
+  <si>
+    <t>Contested</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Continued</t>
+  </si>
+  <si>
+    <t>Courts Own Motion</t>
   </si>
 </sst>
 </file>
@@ -1780,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2836,10 +2848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3332,6 +3344,193 @@
       <c r="AD5" s="9" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECC771C-FC32-451C-8DCD-86CA50FE8A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9ED81-A1D2-4089-AE25-83143C02C47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -2851,7 +2851,7 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3362,7 +3362,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>12</v>
@@ -3374,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>12</v>
@@ -3454,7 +3454,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>12</v>
@@ -3466,7 +3466,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>12</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9ED81-A1D2-4089-AE25-83143C02C47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B4D13A-5E05-4EF0-BDAA-1B487DF35761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="241">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -774,6 +774,9 @@
   </si>
   <si>
     <t>Courts Own Motion</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTESTED_DD</t>
   </si>
 </sst>
 </file>
@@ -2851,7 +2854,7 @@
   <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2865,7 +2868,7 @@
     <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.08984375" bestFit="1" customWidth="1"/>
@@ -2965,7 +2968,7 @@
         <v>201</v>
       </c>
       <c r="Z1" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="AA1" t="s">
         <v>202</v>
@@ -3460,7 +3463,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>12</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B4D13A-5E05-4EF0-BDAA-1B487DF35761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691AFB90-F2CF-4F9F-9B29-D99B1AF4BCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="242">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -776,7 +776,10 @@
     <t>Courts Own Motion</t>
   </si>
   <si>
-    <t>REASON_FOR_CONTESTED_DD</t>
+    <t>Requested</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTINUANCE</t>
   </si>
 </sst>
 </file>
@@ -2853,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2884,7 +2887,7 @@
     <col min="23" max="23" width="38.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.36328125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="33" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="29.6328125" bestFit="1" customWidth="1"/>
@@ -2968,7 +2971,7 @@
         <v>201</v>
       </c>
       <c r="Z1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA1" t="s">
         <v>202</v>
@@ -3279,13 +3282,13 @@
         <v>12</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>12</v>
@@ -4429,6 +4432,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -4645,15 +4657,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4665,6 +4668,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4679,14 +4690,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691AFB90-F2CF-4F9F-9B29-D99B1AF4BCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C7675F-90F4-4265-A9C0-5B12DA03A154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="245">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -662,9 +662,6 @@
     <t>CONTESTEDBY</t>
   </si>
   <si>
-    <t>CONTINUANCE_HEARING_REQUESTBY</t>
-  </si>
-  <si>
     <t>HEARING_INFORMATION</t>
   </si>
   <si>
@@ -780,6 +777,18 @@
   </si>
   <si>
     <t>REASON_FOR_CONTINUANCE</t>
+  </si>
+  <si>
+    <t>CONTINUED_HEARING_REQUESTBY</t>
+  </si>
+  <si>
+    <t>Active Efforts to Refunify Made</t>
+  </si>
+  <si>
+    <t>15 Day Review Ordered</t>
+  </si>
+  <si>
+    <t>As Recommended</t>
   </si>
 </sst>
 </file>
@@ -1265,10 +1274,10 @@
         <v>190</v>
       </c>
       <c r="W1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -1798,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1811,7 +1820,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="25.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="37" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="27" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
     <col min="10" max="10" width="21.81640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="26.54296875" style="4" customWidth="1"/>
@@ -1880,38 +1889,62 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="1" t="s">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2531,16 +2564,16 @@
         <v>183</v>
       </c>
       <c r="F1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s">
         <v>214</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>215</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>216</v>
-      </c>
-      <c r="I1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2699,7 +2732,7 @@
         <v>144</v>
       </c>
       <c r="V1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W1" t="s">
         <v>145</v>
@@ -2838,7 +2871,7 @@
         <v>10</v>
       </c>
       <c r="V3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W3" t="s">
         <v>9</v>
@@ -2856,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
   <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2908,7 +2941,7 @@
         <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F1" t="s">
         <v>130</v>
@@ -2971,19 +3004,19 @@
         <v>201</v>
       </c>
       <c r="Z1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA1" t="s">
         <v>241</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>202</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>203</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>204</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3027,7 +3060,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>9</v>
@@ -3101,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>12</v>
@@ -3196,25 +3229,25 @@
         <v>12</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>181</v>
@@ -3282,13 +3315,13 @@
         <v>12</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>12</v>
@@ -3300,7 +3333,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>9</v>
@@ -3374,58 +3407,58 @@
         <v>12</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="X6" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>237</v>
-      </c>
       <c r="Y6" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Z6" s="9" t="s">
         <v>12</v>
@@ -3472,58 +3505,58 @@
         <v>12</v>
       </c>
       <c r="J7" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>239</v>
-      </c>
       <c r="AA7" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>12</v>
@@ -3589,64 +3622,64 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" t="s">
         <v>218</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>219</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>220</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>221</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>222</v>
       </c>
-      <c r="I1" t="s">
-        <v>223</v>
-      </c>
       <c r="J1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K1" t="s">
         <v>36</v>
       </c>
       <c r="L1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M1" t="s">
         <v>224</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>225</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>226</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>227</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>228</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>229</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>223</v>
+      </c>
+      <c r="T1" t="s">
         <v>230</v>
       </c>
-      <c r="S1" t="s">
-        <v>224</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>231</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>232</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>233</v>
-      </c>
-      <c r="W1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.35">

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C7675F-90F4-4265-A9C0-5B12DA03A154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE752A-510E-41AC-9816-5A999BDB81D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -782,13 +782,13 @@
     <t>CONTINUED_HEARING_REQUESTBY</t>
   </si>
   <si>
-    <t>Active Efforts to Refunify Made</t>
-  </si>
-  <si>
     <t>15 Day Review Ordered</t>
   </si>
   <si>
     <t>As Recommended</t>
+  </si>
+  <si>
+    <t>Active Efforts to Reunify Made</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1808,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1912,13 +1912,13 @@
         <v>9</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>243</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>244</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>12</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE752A-510E-41AC-9816-5A999BDB81D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F943552B-3440-456E-855D-B3D947A33F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -782,13 +782,13 @@
     <t>CONTINUED_HEARING_REQUESTBY</t>
   </si>
   <si>
-    <t>15 Day Review Ordered</t>
-  </si>
-  <si>
     <t>As Recommended</t>
   </si>
   <si>
     <t>Active Efforts to Reunify Made</t>
+  </si>
+  <si>
+    <t>15-Day Review Ordered</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1808,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1912,13 +1912,13 @@
         <v>9</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>12</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F943552B-3440-456E-855D-B3D947A33F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D045FB0C-FBA7-4F70-A86E-82F5B642BAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -278,9 +278,6 @@
     <t>YES_COURT_ORDERED_SPECIAL_PROGRAMS</t>
   </si>
   <si>
-    <t>NOT_COURT_ORDERED_SPECIAL_PROGRAMS</t>
-  </si>
-  <si>
     <t>YES_IMMEDIATE_ACTION_FORTHWITH_ORDERS</t>
   </si>
   <si>
@@ -789,6 +786,9 @@
   </si>
   <si>
     <t>15-Day Review Ordered</t>
+  </si>
+  <si>
+    <t>NO_COURT_ORDERED_SPECIAL_PROGRAMS</t>
   </si>
 </sst>
 </file>
@@ -1217,67 +1217,67 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" t="s">
-        <v>118</v>
       </c>
       <c r="F1" t="s">
         <v>61</v>
       </c>
       <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>120</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>121</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>122</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>123</v>
-      </c>
-      <c r="L1" t="s">
-        <v>124</v>
       </c>
       <c r="M1" t="s">
         <v>38</v>
       </c>
       <c r="N1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" t="s">
         <v>125</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>126</v>
-      </c>
-      <c r="P1" t="s">
-        <v>127</v>
       </c>
       <c r="Q1" t="s">
         <v>36</v>
       </c>
       <c r="R1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V1" t="s">
         <v>189</v>
       </c>
-      <c r="V1" t="s">
-        <v>190</v>
-      </c>
       <c r="W1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -1410,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>9</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>9</v>
@@ -1484,7 +1484,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>9</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -1534,22 +1534,22 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="N5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>9</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -1608,22 +1608,22 @@
         <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="N6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>9</v>
@@ -1808,7 +1808,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1868,22 +1868,22 @@
         <v>73</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>36</v>
@@ -1912,13 +1912,13 @@
         <v>9</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>244</v>
-      </c>
       <c r="J2" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>12</v>
@@ -1989,31 +1989,31 @@
         <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>36</v>
@@ -2079,22 +2079,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
@@ -2171,10 +2171,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -2256,19 +2256,19 @@
         <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>36</v>
@@ -2291,7 +2291,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -2344,43 +2344,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2471,25 +2471,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2558,27 +2558,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
         <v>213</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>214</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>215</v>
-      </c>
-      <c r="I1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2587,10 +2587,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -2616,10 +2616,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>10</v>
@@ -2681,69 +2681,69 @@
         <v>61</v>
       </c>
       <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
         <v>130</v>
-      </c>
-      <c r="F1" t="s">
-        <v>131</v>
       </c>
       <c r="G1" t="s">
         <v>50</v>
       </c>
       <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
         <v>132</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>133</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>134</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>135</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>136</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>137</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>138</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>139</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>141</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>142</v>
-      </c>
-      <c r="S1" t="s">
-        <v>143</v>
       </c>
       <c r="T1" t="s">
         <v>36</v>
       </c>
       <c r="U1" t="s">
+        <v>143</v>
+      </c>
+      <c r="V1" t="s">
+        <v>206</v>
+      </c>
+      <c r="W1" t="s">
         <v>144</v>
       </c>
-      <c r="V1" t="s">
-        <v>207</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>145</v>
-      </c>
-      <c r="X1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2755,10 +2755,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
         <v>184</v>
-      </c>
-      <c r="F2" t="s">
-        <v>185</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -2871,13 +2871,13 @@
         <v>10</v>
       </c>
       <c r="V3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W3" t="s">
         <v>9</v>
       </c>
       <c r="X3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2941,19 +2941,19 @@
         <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" t="s">
         <v>147</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>148</v>
-      </c>
-      <c r="I1" t="s">
-        <v>149</v>
       </c>
       <c r="J1" t="s">
         <v>38</v>
@@ -2965,63 +2965,63 @@
         <v>36</v>
       </c>
       <c r="M1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" t="s">
         <v>150</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" t="s">
         <v>151</v>
       </c>
-      <c r="O1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" t="s">
-        <v>153</v>
-      </c>
       <c r="R1" t="s">
+        <v>193</v>
+      </c>
+      <c r="S1" t="s">
         <v>194</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>195</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>196</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>197</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>198</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>199</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>200</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB1" t="s">
         <v>201</v>
       </c>
-      <c r="Z1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>202</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>203</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -3036,7 +3036,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
@@ -3060,7 +3060,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>9</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="3" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -3134,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>12</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -3229,28 +3229,28 @@
         <v>12</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>12</v>
@@ -3309,19 +3309,19 @@
         <v>12</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>12</v>
@@ -3333,7 +3333,7 @@
         <v>10</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>9</v>
@@ -3407,58 +3407,58 @@
         <v>12</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="X6" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>236</v>
-      </c>
       <c r="Y6" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Z6" s="9" t="s">
         <v>12</v>
@@ -3505,58 +3505,58 @@
         <v>12</v>
       </c>
       <c r="J7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>238</v>
-      </c>
       <c r="AA7" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>12</v>
@@ -3622,64 +3622,64 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
         <v>217</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>218</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>219</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>220</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>221</v>
       </c>
-      <c r="I1" t="s">
-        <v>222</v>
-      </c>
       <c r="J1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K1" t="s">
         <v>36</v>
       </c>
       <c r="L1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" t="s">
         <v>223</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>224</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>225</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>226</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>227</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>228</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>222</v>
+      </c>
+      <c r="T1" t="s">
         <v>229</v>
       </c>
-      <c r="S1" t="s">
-        <v>223</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>230</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>231</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>232</v>
-      </c>
-      <c r="W1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -3864,40 +3864,40 @@
         <v>59</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>50</v>
@@ -3906,27 +3906,27 @@
         <v>36</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>12</v>
@@ -4001,45 +4001,45 @@
         <v>61</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -4051,28 +4051,28 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>12</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,30 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\20feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21\21Feb\21Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D045FB0C-FBA7-4F70-A86E-82F5B642BAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20615842-9194-4012-AD4C-C55332FB8EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="11" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
     <sheet name="CourtWarrents" sheetId="15" r:id="rId2"/>
     <sheet name="CourtHearings" sheetId="16" r:id="rId3"/>
-    <sheet name="Participants" sheetId="20" r:id="rId4"/>
-    <sheet name="Petition" sheetId="17" r:id="rId5"/>
-    <sheet name="AdHocActivity" sheetId="18" r:id="rId6"/>
-    <sheet name="GenerateDocument" sheetId="1" r:id="rId7"/>
-    <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId8"/>
-    <sheet name="CourtReports" sheetId="8" r:id="rId9"/>
-    <sheet name="AmendPetition" sheetId="12" r:id="rId10"/>
-    <sheet name="CourtsDocuments" sheetId="13" r:id="rId11"/>
-    <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId12"/>
-    <sheet name="DocumentDistributions" sheetId="10" r:id="rId13"/>
-    <sheet name="RelatedReferrals" sheetId="11" r:id="rId14"/>
-    <sheet name="GeneratePetition" sheetId="2" r:id="rId15"/>
-    <sheet name="PetitionAllegation" sheetId="3" r:id="rId16"/>
+    <sheet name="Petition" sheetId="17" r:id="rId4"/>
+    <sheet name="AdHocActivity" sheetId="18" r:id="rId5"/>
+    <sheet name="CourtGenerateDocument" sheetId="1" r:id="rId6"/>
+    <sheet name="CourtOfficerNotes" sheetId="7" r:id="rId7"/>
+    <sheet name="CourtReports" sheetId="8" r:id="rId8"/>
+    <sheet name="AmendPetition" sheetId="12" r:id="rId9"/>
+    <sheet name="CourtsDocuments" sheetId="13" r:id="rId10"/>
+    <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId11"/>
+    <sheet name="DocumentDistributions" sheetId="10" r:id="rId12"/>
+    <sheet name="RelatedReferrals" sheetId="11" r:id="rId13"/>
+    <sheet name="GeneratePetition" sheetId="2" r:id="rId14"/>
+    <sheet name="PetitionAllegation" sheetId="3" r:id="rId15"/>
+    <sheet name="Participants" sheetId="20" r:id="rId16"/>
     <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId17"/>
     <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId18"/>
     <sheet name="CourtWorkItems" sheetId="19" r:id="rId19"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="281">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -692,6 +692,147 @@
     <t>I wont tell</t>
   </si>
   <si>
+    <t>VERIFY_SUCCESS_TOAST_MESSAGE</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>SINGLE_CHILD_RB</t>
+  </si>
+  <si>
+    <t>MULTIPLE_CHILDREN_RB</t>
+  </si>
+  <si>
+    <t>CONTRARY_YES_RB</t>
+  </si>
+  <si>
+    <t>CONTRARY_NO_RB</t>
+  </si>
+  <si>
+    <t>SELECT_FOCUS_CHILD</t>
+  </si>
+  <si>
+    <t>testT4245</t>
+  </si>
+  <si>
+    <t>JV 410</t>
+  </si>
+  <si>
+    <t>Continued</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>WIC 300</t>
+  </si>
+  <si>
+    <t>Open - Created</t>
+  </si>
+  <si>
+    <t>E-filing</t>
+  </si>
+  <si>
+    <t>PETITION_WORK_ITEM_ID1</t>
+  </si>
+  <si>
+    <t>CMMANAGERCONTRACOSTA</t>
+  </si>
+  <si>
+    <t>Paper filing</t>
+  </si>
+  <si>
+    <t>CMSUPERVISORCONTRACOSTA</t>
+  </si>
+  <si>
+    <t>AMEND_PETITION_VISIBLE</t>
+  </si>
+  <si>
+    <t>AMENDED_PETITION_STATUS</t>
+  </si>
+  <si>
+    <t>AMENDED_PETITION_CHECKBOX_VERIFY</t>
+  </si>
+  <si>
+    <t>CASE_REF_VERIFY</t>
+  </si>
+  <si>
+    <t>CASE_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICE_COMPONENT_VERIFY</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>REJECT_BTN</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>APPROVE_BTN</t>
+  </si>
+  <si>
+    <t>PETITION_ALLEGATION_ID</t>
+  </si>
+  <si>
+    <t>PARTICIPANTS</t>
+  </si>
+  <si>
+    <t>VERIFY_PICK_FOCUS_CHILD</t>
+  </si>
+  <si>
+    <t>VERIFY_PICK_PARTICIPANT</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_PARTICIPANT_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_ROLE_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY</t>
+  </si>
+  <si>
+    <t>Requested</t>
+  </si>
+  <si>
+    <t>Contested</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Courts Own Motion</t>
+  </si>
+  <si>
+    <t>REASON_FOR_CONTINUANCE</t>
+  </si>
+  <si>
+    <t>CONTINUED_HEARING_REQUESTBY</t>
+  </si>
+  <si>
+    <t>NO_COURT_ORDERED_SPECIAL_PROGRAMS</t>
+  </si>
+  <si>
+    <t>Active Efforts to Reunify Made</t>
+  </si>
+  <si>
+    <t>15-Day Review Ordered</t>
+  </si>
+  <si>
+    <t>As Recommended</t>
+  </si>
+  <si>
     <t>WARRENTS</t>
   </si>
   <si>
@@ -704,39 +845,21 @@
     <t>AD_HOC_ACTIVITIES</t>
   </si>
   <si>
-    <t>PARTICIPANTS</t>
-  </si>
-  <si>
     <t>CHILD_REN</t>
   </si>
   <si>
     <t>COURT_WORK_ITEM_PARTICIPANT</t>
   </si>
   <si>
-    <t>VERIFY_PICK_FOCUS_CHILD</t>
-  </si>
-  <si>
-    <t>VERIFY_PICK_PARTICIPANT</t>
-  </si>
-  <si>
     <t>PICK_FOCUS_CHILD_BTN</t>
   </si>
   <si>
+    <t>SELECT_CHILDREN</t>
+  </si>
+  <si>
     <t>COURT_WORKITEM_PARTICIPANT_ID</t>
   </si>
   <si>
-    <t>COURT_WORKITEM_PARTICIPANT_ID_VERIFY</t>
-  </si>
-  <si>
-    <t>COURT_WORKITEM_PARTICIPANT_PARTICIPANT_VERIFY</t>
-  </si>
-  <si>
-    <t>COURT_WORKITEM_PARTICIPANT_ROLE_VERIFY</t>
-  </si>
-  <si>
-    <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY</t>
-  </si>
-  <si>
     <t>PICK_PARTICIPANT_BTN</t>
   </si>
   <si>
@@ -755,40 +878,25 @@
     <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY_WORKITEM</t>
   </si>
   <si>
-    <t>SELECT_CHILDREN</t>
-  </si>
-  <si>
-    <t>Contested</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>Continued</t>
-  </si>
-  <si>
-    <t>Courts Own Motion</t>
-  </si>
-  <si>
-    <t>Requested</t>
-  </si>
-  <si>
-    <t>REASON_FOR_CONTINUANCE</t>
-  </si>
-  <si>
-    <t>CONTINUED_HEARING_REQUESTBY</t>
-  </si>
-  <si>
-    <t>As Recommended</t>
-  </si>
-  <si>
-    <t>Active Efforts to Reunify Made</t>
-  </si>
-  <si>
-    <t>15-Day Review Ordered</t>
-  </si>
-  <si>
-    <t>NO_COURT_ORDERED_SPECIAL_PROGRAMS</t>
+    <t>RECORD_CLICK</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>OTHER_FINDING_DETAILS</t>
+  </si>
+  <si>
+    <t>Jurisdiction Terminated</t>
+  </si>
+  <si>
+    <t>DATE_OF_TERMINATION_OF_JURISDICTION</t>
+  </si>
+  <si>
+    <t>TERMINATION_OF_JURISDICTION_REASON</t>
+  </si>
+  <si>
+    <t>Children Adopted</t>
   </si>
 </sst>
 </file>
@@ -810,7 +918,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -826,6 +934,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -859,6 +985,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956F4017-6A3B-4528-A576-ADBAA4CE45DC}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1204,9 +1333,10 @@
     <col min="22" max="22" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.90625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1279,156 +1409,165 @@
       <c r="X1" s="8" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="Y1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>128</v>
       </c>
@@ -1436,16 +1575,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
@@ -1460,49 +1599,52 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="W4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>128</v>
       </c>
@@ -1510,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>12</v>
@@ -1570,160 +1712,175 @@
         <v>12</v>
       </c>
       <c r="W5" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X5" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="31.54296875" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="Y5" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C9281-95B1-4261-8698-031FB833C8F1}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1803,12 +1960,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1816,136 +1973,236 @@
     <col min="1" max="1" width="9.7265625" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" customWidth="1"/>
     <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="25.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="37" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.81640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="26.54296875" style="4" customWidth="1"/>
     <col min="12" max="15" width="41.1796875" style="4" customWidth="1"/>
     <col min="16" max="16" width="40.1796875" style="4" customWidth="1"/>
     <col min="17" max="17" width="44.54296875" style="4" customWidth="1"/>
     <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="38" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="M1" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="T1" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>9</v>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" t="s">
+        <v>251</v>
+      </c>
+      <c r="V3" t="s">
+        <v>180</v>
+      </c>
+      <c r="W3" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +2211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -2048,7 +2305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680FC0-F632-45A0-B6DA-7F92240C0A87}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -2140,7 +2397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8EB240-6841-4BB5-96BA-BA7B1D39BA18}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2218,12 +2475,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2239,7 +2496,7 @@
     <col min="11" max="11" width="45.453125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2273,8 +2530,14 @@
       <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2298,6 +2561,365 @@
       </c>
       <c r="K2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD14753-29D0-4ED7-9032-5FEC34700482}">
+  <dimension ref="A1:W4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="59.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="51.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2308,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2333,7 +2955,7 @@
     <col min="15" max="15" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2382,8 +3004,17 @@
       <c r="P1" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R1" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2430,6 +3061,35 @@
         <v>10</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2532,10 +3192,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A754B-6C4D-4F46-AFB2-D2A6709D56D1}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2545,35 +3205,39 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" t="s">
-        <v>215</v>
+      <c r="F1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2592,7 +3256,7 @@
       <c r="E2" t="s">
         <v>181</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -2605,33 +3269,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2641,10 +3334,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29C7602-AA01-44A6-9119-1E036C8353B7}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2665,9 +3358,10 @@
     <col min="22" max="22" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.08984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.90625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2740,145 +3434,234 @@
       <c r="X1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="Y1" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="K3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="W3" t="s">
-        <v>9</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="W3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>180</v>
       </c>
+      <c r="Y3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Y5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2887,10 +3670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2901,10 +3684,10 @@
     <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.6328125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.08984375" bestFit="1" customWidth="1"/>
@@ -2920,14 +3703,16 @@
     <col min="23" max="23" width="38.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.1796875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="33" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3003,11 +3788,11 @@
       <c r="Y1" t="s">
         <v>200</v>
       </c>
-      <c r="Z1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>240</v>
+      <c r="Z1" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="AB1" t="s">
         <v>201</v>
@@ -3018,8 +3803,14 @@
       <c r="AD1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AE1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>128</v>
       </c>
@@ -3110,8 +3901,14 @@
       <c r="AD2" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AE2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>128</v>
       </c>
@@ -3199,8 +3996,14 @@
       <c r="AD3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>128</v>
       </c>
@@ -3291,285 +4094,503 @@
       <c r="AD4" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="AE4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="10"/>
+    </row>
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="9" t="s">
+      <c r="I7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="O7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W6" s="9" t="s">
+      <c r="I8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="X6" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD6" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="X8" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="W7" s="9" t="s">
+      <c r="D9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="X7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA7" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="F8" s="9"/>
+      <c r="X9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3577,264 +4598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31EE385F-D59F-41FF-8669-8D9191156315}">
-  <dimension ref="A1:W3"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="59.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="51.90625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" t="s">
-        <v>218</v>
-      </c>
-      <c r="G1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J1" t="s">
-        <v>233</v>
-      </c>
-      <c r="K1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N1" t="s">
-        <v>224</v>
-      </c>
-      <c r="O1" t="s">
-        <v>225</v>
-      </c>
-      <c r="P1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>227</v>
-      </c>
-      <c r="R1" t="s">
-        <v>228</v>
-      </c>
-      <c r="S1" t="s">
-        <v>222</v>
-      </c>
-      <c r="T1" t="s">
-        <v>229</v>
-      </c>
-      <c r="U1" t="s">
-        <v>230</v>
-      </c>
-      <c r="V1" t="s">
-        <v>231</v>
-      </c>
-      <c r="W1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>2</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3847,130 +4615,327 @@
     <col min="21" max="21" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="U1" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E53F1CC-8316-4D5B-AB93-2C2C643381EB}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -4089,12 +5054,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4108,7 +5073,7 @@
     <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4133,8 +5098,27 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4159,8 +5143,27 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -4185,8 +5188,26 @@
       <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -4211,6 +5232,129 @@
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="I4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="8"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4218,7 +5362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0AE46-36C8-4825-95FA-018986A6B0B5}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
@@ -4347,7 +5491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
   <dimension ref="A1:W2"/>
   <sheetViews>
@@ -4458,6 +5602,331 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488771E6-AEC9-43EB-8B07-DC7B8A4C4235}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="31.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21\21Feb\21Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20615842-9194-4012-AD4C-C55332FB8EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9C0B94-9399-404C-8033-C692C722B6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="281">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1962,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1992,7 +1992,7 @@
     <col min="23" max="23" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2062,8 +2062,11 @@
       <c r="W1" s="8" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="X1" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -2133,8 +2136,11 @@
       <c r="W2" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="X2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -2203,6 +2209,9 @@
       </c>
       <c r="W3" t="s">
         <v>280</v>
+      </c>
+      <c r="X3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\21\21Feb\21Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9C0B94-9399-404C-8033-C692C722B6B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A67B8B-0D1F-4D2F-B9DC-D78C479D0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="10" activeTab="10" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="283">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -767,9 +767,6 @@
     <t>SERVICE_COMPONENT_VERIFY</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>REJECT_BTN</t>
   </si>
   <si>
@@ -878,22 +875,31 @@
     <t>COURT_WORKITEM_PARTICIPANT_DOB_VERIFY_WORKITEM</t>
   </si>
   <si>
+    <t>YES_RB</t>
+  </si>
+  <si>
+    <t>NO_RB</t>
+  </si>
+  <si>
+    <t>Active - Submitted to court</t>
+  </si>
+  <si>
     <t>RECORD_CLICK</t>
   </si>
   <si>
+    <t>OTHER_FINDING_DETAILS</t>
+  </si>
+  <si>
+    <t>DATE_OF_TERMINATION_OF_JURISDICTION</t>
+  </si>
+  <si>
+    <t>TERMINATION_OF_JURISDICTION_REASON</t>
+  </si>
+  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>OTHER_FINDING_DETAILS</t>
-  </si>
-  <si>
     <t>Jurisdiction Terminated</t>
-  </si>
-  <si>
-    <t>DATE_OF_TERMINATION_OF_JURISDICTION</t>
-  </si>
-  <si>
-    <t>TERMINATION_OF_JURISDICTION_REASON</t>
   </si>
   <si>
     <t>Children Adopted</t>
@@ -1964,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1973,23 +1979,18 @@
     <col min="1" max="1" width="9.7265625" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" customWidth="1"/>
     <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="25.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="37" style="4" customWidth="1"/>
     <col min="8" max="8" width="16.54296875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
     <col min="10" max="10" width="21.81640625" style="4" customWidth="1"/>
     <col min="11" max="11" width="26.54296875" style="4" customWidth="1"/>
     <col min="12" max="15" width="41.1796875" style="4" customWidth="1"/>
     <col min="16" max="16" width="40.1796875" style="4" customWidth="1"/>
     <col min="17" max="17" width="44.54296875" style="4" customWidth="1"/>
     <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="38" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2030,7 +2031,7 @@
         <v>73</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>74</v>
@@ -2051,10 +2052,10 @@
         <v>36</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="U1" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>278</v>
@@ -2089,14 +2090,14 @@
         <v>9</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>258</v>
-      </c>
       <c r="K2" s="12" t="s">
         <v>12</v>
       </c>
@@ -2140,17 +2141,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -2162,11 +2163,11 @@
       <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>275</v>
+      <c r="H3" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>12</v>
@@ -2189,28 +2190,28 @@
       <c r="P3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" t="s">
-        <v>251</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="W3" t="s">
-        <v>280</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="W3" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="X3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2488,7 +2489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -2543,7 +2544,7 @@
         <v>144</v>
       </c>
       <c r="M1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2618,7 +2619,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2658,64 +2659,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>265</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>36</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3014,13 +3015,13 @@
         <v>114</v>
       </c>
       <c r="R1" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3237,16 +3238,16 @@
         <v>182</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3798,10 +3799,10 @@
         <v>200</v>
       </c>
       <c r="Z1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>253</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>254</v>
       </c>
       <c r="AB1" t="s">
         <v>201</v>
@@ -4336,7 +4337,7 @@
         <v>12</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>12</v>
@@ -4434,7 +4435,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>12</v>
@@ -4476,10 +4477,10 @@
         <v>208</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Z8" s="12" t="s">
         <v>12</v>
@@ -4580,10 +4581,10 @@
         <v>12</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AB9" s="12" t="s">
         <v>12</v>
@@ -4608,10 +4609,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A75ED-C5E5-4ACC-91B4-7C1A95E78CD8}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection sqref="A1:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4749,52 +4750,52 @@
       <c r="U2" s="8"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="8" t="s">
+      <c r="H3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="N3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="Q3" s="8" t="s">
@@ -4814,52 +4815,52 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="8" t="s">
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="8" t="s">
@@ -4879,52 +4880,52 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="8" t="s">
+      <c r="N5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="8" t="s">
@@ -4938,6 +4939,71 @@
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5065,10 +5131,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A64C3-BE1D-47FD-AB7F-548C150FB5B6}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5082,7 +5148,7 @@
     <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5125,9 +5191,14 @@
       <c r="N1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5170,9 +5241,14 @@
       <c r="N2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -5215,8 +5291,14 @@
       <c r="N3" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -5259,8 +5341,14 @@
       <c r="N4" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>220</v>
       </c>
@@ -5303,9 +5391,14 @@
       <c r="N5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>220</v>
       </c>
@@ -5345,10 +5438,17 @@
       <c r="M6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -5622,7 +5722,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5767,7 +5867,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>12</v>
@@ -5943,15 +6043,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6168,6 +6259,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6179,14 +6279,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6201,6 +6293,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A67B8B-0D1F-4D2F-B9DC-D78C479D0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D11C37-3E98-4A0B-9301-630259887C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="10" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -24,14 +24,15 @@
     <sheet name="AmendPetition" sheetId="12" r:id="rId9"/>
     <sheet name="CourtsDocuments" sheetId="13" r:id="rId10"/>
     <sheet name="CourtMinuteOrders" sheetId="9" r:id="rId11"/>
-    <sheet name="DocumentDistributions" sheetId="10" r:id="rId12"/>
-    <sheet name="RelatedReferrals" sheetId="11" r:id="rId13"/>
-    <sheet name="GeneratePetition" sheetId="2" r:id="rId14"/>
-    <sheet name="PetitionAllegation" sheetId="3" r:id="rId15"/>
-    <sheet name="Participants" sheetId="20" r:id="rId16"/>
-    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId17"/>
-    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId18"/>
-    <sheet name="CourtWorkItems" sheetId="19" r:id="rId19"/>
+    <sheet name="Related" sheetId="21" r:id="rId12"/>
+    <sheet name="DocumentDistributions" sheetId="10" r:id="rId13"/>
+    <sheet name="RelatedReferrals" sheetId="11" r:id="rId14"/>
+    <sheet name="GeneratePetition" sheetId="2" r:id="rId15"/>
+    <sheet name="PetitionAllegation" sheetId="3" r:id="rId16"/>
+    <sheet name="Participants" sheetId="20" r:id="rId17"/>
+    <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId18"/>
+    <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId19"/>
+    <sheet name="CourtWorkItems" sheetId="19" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="288">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -884,9 +885,6 @@
     <t>Active - Submitted to court</t>
   </si>
   <si>
-    <t>RECORD_CLICK</t>
-  </si>
-  <si>
     <t>OTHER_FINDING_DETAILS</t>
   </si>
   <si>
@@ -903,6 +901,24 @@
   </si>
   <si>
     <t>Children Adopted</t>
+  </si>
+  <si>
+    <t>STRTP Placement - Granted</t>
+  </si>
+  <si>
+    <t>MULTI_KEY_ORDERS</t>
+  </si>
+  <si>
+    <t>CMO_ID</t>
+  </si>
+  <si>
+    <t>CMO_ID1</t>
+  </si>
+  <si>
+    <t>FOLIO_RECORD_ID</t>
+  </si>
+  <si>
+    <t>FOLIO_ID1</t>
   </si>
 </sst>
 </file>
@@ -1968,32 +1984,42 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="37" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="26.54296875" style="4" customWidth="1"/>
-    <col min="12" max="15" width="41.1796875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="40.1796875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="44.54296875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="20.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="42.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="47.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="37" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2021,53 +2047,56 @@
       <c r="I1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="W1" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -2096,19 +2125,19 @@
         <v>256</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="L2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>12</v>
@@ -2123,10 +2152,10 @@
         <v>12</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>12</v>
@@ -2140,8 +2169,11 @@
       <c r="X2" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Y2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -2164,54 +2196,134 @@
         <v>12</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="X3" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="W3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="J4" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2222,6 +2334,62 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ABCE7A-F493-431D-89CD-DE9D3153DCB7}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -2315,12 +2483,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8680FC0-F632-45A0-B6DA-7F92240C0A87}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2407,7 +2575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8EB240-6841-4BB5-96BA-BA7B1D39BA18}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2485,7 +2653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3EF84F3-DE81-43A1-A9B9-4CC906AB6007}">
   <dimension ref="A1:M3"/>
   <sheetViews>
@@ -2614,7 +2782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD14753-29D0-4ED7-9032-5FEC34700482}">
   <dimension ref="A1:W4"/>
   <sheetViews>
@@ -2938,7 +3106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D116B25D-02A3-4C2E-B650-20FDB3D7917E}">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -3108,7 +3276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B78A5E-5873-467A-B8DB-F33589FCB780}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3197,148 +3365,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A754B-6C4D-4F46-AFB2-D2A6709D56D1}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3672,6 +3698,148 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="Y5" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57A754B-6C4D-4F46-AFB2-D2A6709D56D1}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6043,6 +6211,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6259,15 +6436,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6279,6 +6447,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6293,14 +6469,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D11C37-3E98-4A0B-9301-630259887C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2602CF-4DA5-4CD0-BFAC-1EA840EDF69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="289">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -907,6 +907,9 @@
   </si>
   <si>
     <t>MULTI_KEY_ORDERS</t>
+  </si>
+  <si>
+    <t>STRTP Placement - Denied</t>
   </si>
   <si>
     <t>CMO_ID</t>
@@ -1986,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2081,7 +2084,7 @@
         <v>36</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>276</v>
@@ -2235,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>250</v>
@@ -2279,7 +2282,7 @@
         <v>282</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>12</v>
@@ -2312,7 +2315,7 @@
         <v>9</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>12</v>
@@ -2338,7 +2341,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2364,7 +2367,7 @@
         <v>188</v>
       </c>
       <c r="E1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2381,7 +2384,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\latestFromGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2602CF-4DA5-4CD0-BFAC-1EA840EDF69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B1225-A700-42AA-BD75-54D85AB4A342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="9" activeTab="11" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="11" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="289">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -903,19 +903,19 @@
     <t>Children Adopted</t>
   </si>
   <si>
+    <t>MULTI_KEY_ORDERS</t>
+  </si>
+  <si>
+    <t>CMO_ID</t>
+  </si>
+  <si>
+    <t>CMO_ID1</t>
+  </si>
+  <si>
     <t>STRTP Placement - Granted</t>
   </si>
   <si>
-    <t>MULTI_KEY_ORDERS</t>
-  </si>
-  <si>
     <t>STRTP Placement - Denied</t>
-  </si>
-  <si>
-    <t>CMO_ID</t>
-  </si>
-  <si>
-    <t>CMO_ID1</t>
   </si>
   <si>
     <t>FOLIO_RECORD_ID</t>
@@ -1989,37 +1989,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.54296875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="20.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="47.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="38" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="26.54296875" style="4" customWidth="1"/>
+    <col min="12" max="15" width="41.1796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="40.1796875" style="4" customWidth="1"/>
+    <col min="17" max="17" width="44.54296875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="40.1796875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2051,7 +2041,7 @@
         <v>70</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>71</v>
@@ -2084,7 +2074,7 @@
         <v>36</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>276</v>
@@ -2238,7 +2228,7 @@
         <v>9</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>250</v>
@@ -2279,43 +2269,43 @@
         <v>12</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J4" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="8" t="s">
         <v>284</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>12</v>
@@ -2337,11 +2327,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ABCE7A-F493-431D-89CD-DE9D3153DCB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4940952E-C868-4873-B6FF-4F836CDED0DF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2349,11 +2339,11 @@
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2366,11 +2356,11 @@
       <c r="D1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -2491,7 +2481,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3851,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4770,6 +4760,104 @@
         <v>12</v>
       </c>
       <c r="AF9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\latestFromGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B1225-A700-42AA-BD75-54D85AB4A342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01320BD-517E-4ED6-B4D2-E97CB0D5A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="11" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="6" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="291">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -922,6 +922,12 @@
   </si>
   <si>
     <t>FOLIO_ID1</t>
+  </si>
+  <si>
+    <t>COURT_OFFICERS_NOTES_TAB</t>
+  </si>
+  <si>
+    <t>NEXT_HEARING_DATE_AND_TIME</t>
   </si>
 </sst>
 </file>
@@ -2330,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4940952E-C868-4873-B6FF-4F836CDED0DF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5732,41 +5738,44 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0AE46-36C8-4825-95FA-018986A6B0B5}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
-    <col min="6" max="6" width="30.54296875" customWidth="1"/>
-    <col min="7" max="7" width="32.81640625" customWidth="1"/>
-    <col min="8" max="8" width="31.7265625" customWidth="1"/>
-    <col min="9" max="9" width="49.453125" customWidth="1"/>
-    <col min="10" max="10" width="55.1796875" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="21.1796875" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
-    <col min="16" max="16" width="58.1796875" customWidth="1"/>
-    <col min="17" max="17" width="26" customWidth="1"/>
-    <col min="18" max="18" width="23.1796875" customWidth="1"/>
-    <col min="19" max="19" width="20.7265625" customWidth="1"/>
-    <col min="20" max="20" width="18.453125" customWidth="1"/>
-    <col min="21" max="21" width="31" customWidth="1"/>
-    <col min="22" max="22" width="50.26953125" style="4" customWidth="1"/>
-    <col min="23" max="23" width="39.54296875" style="4" customWidth="1"/>
-    <col min="24" max="24" width="24.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.81640625" customWidth="1"/>
+    <col min="9" max="9" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="57.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.6328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="50.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="51.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5776,82 +5785,160 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6311,6 +6398,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6527,16 +6624,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
   <ds:schemaRefs>
@@ -6546,6 +6633,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6564,16 +6661,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\latestFromGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01320BD-517E-4ED6-B4D2-E97CB0D5A4FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336775E3-6156-49FD-B037-56324F93A23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="6" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="292">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -111,9 +111,6 @@
     <t>PARTICIPANTS_PRESENT_REMOTELY</t>
   </si>
   <si>
-    <t>TAFF_WORKER_PRESENT_IN_COURT</t>
-  </si>
-  <si>
     <t>STAFF_WORKER_PRESENT_REMOTELY</t>
   </si>
   <si>
@@ -928,6 +925,12 @@
   </si>
   <si>
     <t>NEXT_HEARING_DATE_AND_TIME</t>
+  </si>
+  <si>
+    <t>STAFF_WORKER_PRESENT_IN_COURT</t>
+  </si>
+  <si>
+    <t>DISCOVERY</t>
   </si>
 </sst>
 </file>
@@ -1378,75 +1381,75 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>122</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
         <v>123</v>
       </c>
-      <c r="M1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>124</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>125</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R1" t="s">
-        <v>127</v>
-      </c>
       <c r="S1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="U1" t="s">
+        <v>187</v>
+      </c>
+      <c r="V1" t="s">
         <v>188</v>
       </c>
-      <c r="V1" t="s">
-        <v>189</v>
-      </c>
       <c r="W1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -1458,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>9</v>
@@ -1500,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>9</v>
@@ -1523,7 +1526,7 @@
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -1553,22 +1556,22 @@
         <v>12</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="N3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>9</v>
@@ -1600,7 +1603,7 @@
     </row>
     <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -1630,22 +1633,22 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>9</v>
@@ -1677,7 +1680,7 @@
     </row>
     <row r="5" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -1707,22 +1710,22 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="N5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>9</v>
@@ -1885,7 +1888,7 @@
         <v>12</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>9</v>
@@ -1943,28 +1946,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2029,70 +2032,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>283</v>
-      </c>
       <c r="V1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="X1" s="8" t="s">
-        <v>278</v>
-      </c>
       <c r="Y1" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2118,16 +2121,16 @@
         <v>9</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>12</v>
@@ -2195,55 +2198,55 @@
         <v>12</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="X3" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="Y3" s="8" t="s">
         <v>9</v>
@@ -2275,11 +2278,11 @@
         <v>12</v>
       </c>
       <c r="I4" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>286</v>
-      </c>
       <c r="K4" s="8" t="s">
         <v>12</v>
       </c>
@@ -2311,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>12</v>
@@ -2360,10 +2363,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -2380,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2420,37 +2423,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -2513,26 +2516,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2605,16 +2608,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
@@ -2640,7 +2643,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
@@ -2684,34 +2687,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2731,7 +2734,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -2748,7 +2751,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2763,7 +2766,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>9</v>
@@ -2826,64 +2829,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="N1" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="S1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="R1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="S1" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -3030,7 +3033,7 @@
     </row>
     <row r="4" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -3143,52 +3146,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="R1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3243,7 +3246,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3308,25 +3311,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3407,75 +3410,75 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
         <v>130</v>
       </c>
-      <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>131</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>132</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>133</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>134</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>135</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>136</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>137</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>138</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>141</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
         <v>142</v>
       </c>
-      <c r="T1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
+        <v>205</v>
+      </c>
+      <c r="W1" t="s">
         <v>143</v>
       </c>
-      <c r="V1" t="s">
-        <v>206</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>144</v>
       </c>
-      <c r="X1" t="s">
-        <v>145</v>
-      </c>
       <c r="Y1" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -3487,10 +3490,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -3570,7 +3573,7 @@
         <v>12</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>12</v>
@@ -3606,13 +3609,13 @@
         <v>10</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="X3" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>12</v>
@@ -3620,7 +3623,7 @@
     </row>
     <row r="4" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -3683,7 +3686,7 @@
         <v>10</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W4" s="7" t="s">
         <v>9</v>
@@ -3735,27 +3738,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3764,10 +3767,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>12</v>
@@ -3793,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>10</v>
@@ -3813,7 +3816,7 @@
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -3822,10 +3825,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
@@ -3900,96 +3903,96 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" t="s">
+        <v>197</v>
+      </c>
+      <c r="X1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE1" t="s">
         <v>204</v>
       </c>
-      <c r="F1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O1" t="s">
-        <v>144</v>
-      </c>
-      <c r="P1" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" t="s">
-        <v>193</v>
-      </c>
-      <c r="S1" t="s">
-        <v>194</v>
-      </c>
-      <c r="T1" t="s">
-        <v>195</v>
-      </c>
-      <c r="U1" t="s">
-        <v>196</v>
-      </c>
-      <c r="V1" t="s">
-        <v>197</v>
-      </c>
-      <c r="W1" t="s">
-        <v>198</v>
-      </c>
-      <c r="X1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>205</v>
-      </c>
       <c r="AF1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -4004,7 +4007,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>12</v>
@@ -4028,7 +4031,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>9</v>
@@ -4087,7 +4090,7 @@
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -4108,7 +4111,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>12</v>
@@ -4182,7 +4185,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -4209,28 +4212,28 @@
         <v>12</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>211</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>12</v>
@@ -4280,7 +4283,7 @@
     </row>
     <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -4307,7 +4310,7 @@
         <v>12</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="10">
         <v>1</v>
@@ -4396,10 +4399,10 @@
         <v>12</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>12</v>
@@ -4417,7 +4420,7 @@
         <v>10</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>9</v>
@@ -4492,19 +4495,19 @@
         <v>12</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>12</v>
@@ -4516,7 +4519,7 @@
         <v>10</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O7" s="12" t="s">
         <v>9</v>
@@ -4596,58 +4599,58 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="X8" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="T8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>250</v>
-      </c>
       <c r="Y8" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Z8" s="12" t="s">
         <v>12</v>
@@ -4700,7 +4703,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>12</v>
@@ -4739,7 +4742,7 @@
         <v>10</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X9" s="12" t="s">
         <v>12</v>
@@ -4748,10 +4751,10 @@
         <v>12</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB9" s="12" t="s">
         <v>12</v>
@@ -4810,7 +4813,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>12</v>
@@ -4901,63 +4904,63 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="R1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="U1" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -4970,10 +4973,10 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>12</v>
@@ -5016,7 +5019,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
@@ -5031,49 +5034,49 @@
         <v>12</v>
       </c>
       <c r="F3" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>9</v>
@@ -5081,7 +5084,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -5132,13 +5135,13 @@
         <v>12</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>9</v>
@@ -5146,7 +5149,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
@@ -5182,22 +5185,22 @@
         <v>12</v>
       </c>
       <c r="M5" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>9</v>
@@ -5207,7 +5210,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
@@ -5225,7 +5228,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>12</v>
@@ -5303,48 +5306,48 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -5356,28 +5359,28 @@
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>12</v>
@@ -5439,28 +5442,28 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>219</v>
-      </c>
       <c r="O1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -5615,22 +5618,22 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>12</v>
@@ -5665,7 +5668,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -5738,10 +5741,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0AE46-36C8-4825-95FA-018986A6B0B5}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5772,10 +5775,11 @@
     <col min="24" max="24" width="50.36328125" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="51.08984375" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.90625" style="8" customWidth="1"/>
+    <col min="28" max="28" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5786,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
@@ -5795,70 +5799,73 @@
         <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>34</v>
       </c>
       <c r="Z1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -5923,10 +5930,10 @@
         <v>12</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>12</v>
@@ -5938,6 +5945,9 @@
         <v>12</v>
       </c>
       <c r="AA2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5987,64 +5997,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="W1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -6094,37 +6104,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>236</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
@@ -6155,7 +6165,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="11">
         <v>1</v>
@@ -6201,7 +6211,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -6247,7 +6257,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B5" s="11">
         <v>1</v>
@@ -6293,7 +6303,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -6308,7 +6318,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>10</v>
@@ -6339,7 +6349,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\latestFromGIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336775E3-6156-49FD-B037-56324F93A23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF46B9A-2C4C-4A1E-815E-0787EA96305A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="6" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="293">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -931,6 +931,9 @@
   </si>
   <si>
     <t>DISCOVERY</t>
+  </si>
+  <si>
+    <t>Autocase4201 worker 4201</t>
   </si>
 </sst>
 </file>
@@ -5744,7 +5747,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5879,13 +5882,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>12</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\22Feb\latestFromGIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\23Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF46B9A-2C4C-4A1E-815E-0787EA96305A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F1D8C1-5F5D-4513-8312-B755FB09D7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="6" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -924,13 +924,13 @@
     <t>COURT_OFFICERS_NOTES_TAB</t>
   </si>
   <si>
+    <t>STAFF_WORKER_PRESENT_IN_COURT</t>
+  </si>
+  <si>
+    <t>DISCOVERY</t>
+  </si>
+  <si>
     <t>NEXT_HEARING_DATE_AND_TIME</t>
-  </si>
-  <si>
-    <t>STAFF_WORKER_PRESENT_IN_COURT</t>
-  </si>
-  <si>
-    <t>DISCOVERY</t>
   </si>
   <si>
     <t>Autocase4201 worker 4201</t>
@@ -2343,7 +2343,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5747,124 +5747,120 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.81640625" customWidth="1"/>
-    <col min="9" max="9" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="48.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="57.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="57.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="50.36328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="51.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.90625" style="8" customWidth="1"/>
-    <col min="28" max="28" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
+    <col min="8" max="8" width="31.7265625" customWidth="1"/>
+    <col min="9" max="9" width="49.453125" customWidth="1"/>
+    <col min="10" max="10" width="55.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="12" max="12" width="21.1796875" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="16" max="16" width="58.1796875" customWidth="1"/>
+    <col min="17" max="17" width="26" customWidth="1"/>
+    <col min="18" max="18" width="23.1796875" customWidth="1"/>
+    <col min="19" max="19" width="20.7265625" customWidth="1"/>
+    <col min="20" max="20" width="18.453125" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="22" width="50.26953125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="39.54296875" style="4" customWidth="1"/>
+    <col min="24" max="24" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="8" t="s">
         <v>29</v>
       </c>
       <c r="V1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="W1" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AA1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6402,25 +6398,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6637,25 +6614,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6674,6 +6652,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\23Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\24Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F1D8C1-5F5D-4513-8312-B755FB09D7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C13AB57-1CD9-49A5-B4A9-D648F6467624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="6" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="CourtsApprovalAndAuditHistory" sheetId="4" r:id="rId18"/>
     <sheet name="CourtsAuditHistory" sheetId="6" r:id="rId19"/>
     <sheet name="CourtWorkItems" sheetId="19" r:id="rId20"/>
+    <sheet name="ReleasesOfInformationAndConsent" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="354">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -934,6 +935,189 @@
   </si>
   <si>
     <t>Autocase4201 worker 4201</t>
+  </si>
+  <si>
+    <t>SELECT_ADDRESS</t>
+  </si>
+  <si>
+    <t>METHOD_OF_DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>In-Person</t>
+  </si>
+  <si>
+    <t>Addendum Report</t>
+  </si>
+  <si>
+    <t>Hearing on a Petition</t>
+  </si>
+  <si>
+    <t>Court Report</t>
+  </si>
+  <si>
+    <t>Court Work Item Participants</t>
+  </si>
+  <si>
+    <t>NOTICE_ID</t>
+  </si>
+  <si>
+    <t>DISTRIBUTION_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>RECIPIENT_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>DISTRIBUTED_DOCUMENT_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>METHOD_OF_DISTRIBUTION_VERIFY</t>
+  </si>
+  <si>
+    <t>NOTICE_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_SENT_VERIFY</t>
+  </si>
+  <si>
+    <t>OTHER_SERVICE_METHOD_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESS_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESSED_FOREIGN_CONSULATE_VERIFY</t>
+  </si>
+  <si>
+    <t>SEND_AUTHORIZED_REPRESENTATIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESS_LINE1_VERIFY</t>
+  </si>
+  <si>
+    <t>ADDRESS_LINE2_VERIFY</t>
+  </si>
+  <si>
+    <t>COUNTY_VERIFY</t>
+  </si>
+  <si>
+    <t>STATE_VERIFY</t>
+  </si>
+  <si>
+    <t>CITY_VERIFY</t>
+  </si>
+  <si>
+    <t>ZIPCODE_VERIFY</t>
+  </si>
+  <si>
+    <t>FOREIGN_CONSULATE_VERIFY</t>
+  </si>
+  <si>
+    <t>COURT_WORK_ITEM_VERIFY</t>
+  </si>
+  <si>
+    <t>PERSON_ADDRESS_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>CWI_PARTICIPANTID_VERIFY</t>
+  </si>
+  <si>
+    <t>District Attorney</t>
+  </si>
+  <si>
+    <t>Probate Court</t>
+  </si>
+  <si>
+    <t>Tribe</t>
+  </si>
+  <si>
+    <t>NOTICE_ID2</t>
+  </si>
+  <si>
+    <t>NOTICE_ID3</t>
+  </si>
+  <si>
+    <t>NOTICE_ID4</t>
+  </si>
+  <si>
+    <t>NOTICE_ID5</t>
+  </si>
+  <si>
+    <t>E-filling</t>
+  </si>
+  <si>
+    <t>Detention Report</t>
+  </si>
+  <si>
+    <t>RELEASES_OF_INFORMATION_AND_CONSENT_FORM_TAB</t>
+  </si>
+  <si>
+    <t>releaseOfInformationAndConsentFormNewBtn</t>
+  </si>
+  <si>
+    <t>FOLIO_PERSON_ID</t>
+  </si>
+  <si>
+    <t>AUTHORIZATION_TYPE</t>
+  </si>
+  <si>
+    <t>ON_BEHALF_OF</t>
+  </si>
+  <si>
+    <t>TYPE_OF_CONSENT_ROI</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>SENSITIVE</t>
+  </si>
+  <si>
+    <t>SEALED</t>
+  </si>
+  <si>
+    <t>RELEASE_INFORMATION_AND_CONSENT_FORM_ID</t>
+  </si>
+  <si>
+    <t>RECORD_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>RELEASE_CONSENT_PROVIDEDBY_VERIFY</t>
+  </si>
+  <si>
+    <t>ACTIVE_VERIFY</t>
+  </si>
+  <si>
+    <t>AUTHORIZATION_BY_VERIFY</t>
+  </si>
+  <si>
+    <t>TYPE_OF_CONSENT_ROI_VERIFY</t>
+  </si>
+  <si>
+    <t>ON_BEHLFTO_VERIFY</t>
+  </si>
+  <si>
+    <t>PersonName1</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>JV 141 - Electronic Service</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>INACTIVE_REASON</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>RELEASE_INFORMATION_AND_CONSENT_FORM_ID1</t>
+  </si>
+  <si>
+    <t>HEARING_PACKET_SUBMITTED_TO_COURT_DATE</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1025,6 +1209,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2396,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2411,55 +2601,151 @@
     <col min="5" max="5" width="29.54296875" customWidth="1"/>
     <col min="6" max="6" width="19.1796875" customWidth="1"/>
     <col min="8" max="8" width="28.453125" customWidth="1"/>
-    <col min="12" max="12" width="29.453125" customWidth="1"/>
-    <col min="13" max="13" width="26.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
+    <col min="10" max="10" width="15.90625" customWidth="1"/>
+    <col min="11" max="11" width="24.7265625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="46.54296875" style="8" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" customWidth="1"/>
+    <col min="14" max="14" width="29.453125" customWidth="1"/>
+    <col min="15" max="15" width="26.1796875" customWidth="1"/>
+    <col min="16" max="16" width="9.81640625" customWidth="1"/>
+    <col min="17" max="17" width="11.08984375" customWidth="1"/>
+    <col min="42" max="42" width="11.81640625" customWidth="1"/>
+    <col min="43" max="43" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:43" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="Q1" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2472,19 +2758,651 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3714,7 +4632,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3851,12 +4769,162 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53244731-B345-4579-9EA1-6DF92DB7F6ED}">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="49.08984375" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="M1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>340</v>
+      </c>
+      <c r="R1" t="s">
+        <v>341</v>
+      </c>
+      <c r="S1" t="s">
+        <v>342</v>
+      </c>
+      <c r="T1" t="s">
+        <v>343</v>
+      </c>
+      <c r="U1" t="s">
+        <v>344</v>
+      </c>
+      <c r="V1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" t="s">
+        <v>347</v>
+      </c>
+      <c r="J2" t="s">
+        <v>348</v>
+      </c>
+      <c r="K2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3892,10 +4960,11 @@
     <col min="29" max="29" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="38.453125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27.90625" style="8" customWidth="1"/>
+    <col min="33" max="33" width="4.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3989,11 +5058,14 @@
       <c r="AE1" t="s">
         <v>204</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>127</v>
       </c>
@@ -4090,8 +5162,11 @@
       <c r="AF2" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>127</v>
       </c>
@@ -4185,8 +5260,11 @@
       <c r="AF3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AG3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>127</v>
       </c>
@@ -4283,8 +5361,11 @@
       <c r="AF4" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>127</v>
       </c>
@@ -4381,8 +5462,11 @@
       <c r="AF5" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AG5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>219</v>
       </c>
@@ -4476,12 +5560,15 @@
       <c r="AE6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AF6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="10"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="10"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -4575,11 +5662,14 @@
       <c r="AE7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
@@ -4673,11 +5763,14 @@
       <c r="AE8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AF8" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
@@ -4771,11 +5864,14 @@
       <c r="AE9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AF9" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -4869,7 +5965,111 @@
       <c r="AE10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AF10" s="12" t="s">
+      <c r="AF10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5746,7 +6946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C0AE46-36C8-4825-95FA-018986A6B0B5}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5957,10 +7157,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6056,16 +7256,79 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\24Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C13AB57-1CD9-49A5-B4A9-D648F6467624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE51F776-D5FC-41EC-A937-E26A8DBD3F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="355">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1118,6 +1118,9 @@
   </si>
   <si>
     <t>HEARING_PACKET_SUBMITTED_TO_COURT_DATE</t>
+  </si>
+  <si>
+    <t>COURT_REPORT_TAB</t>
   </si>
 </sst>
 </file>
@@ -7157,7 +7160,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7167,25 +7170,26 @@
   <cols>
     <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="25.54296875" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
-    <col min="9" max="9" width="32.1796875" customWidth="1"/>
-    <col min="10" max="10" width="41.1796875" customWidth="1"/>
-    <col min="11" max="11" width="35.26953125" customWidth="1"/>
-    <col min="12" max="12" width="39.7265625" customWidth="1"/>
-    <col min="13" max="13" width="18.1796875" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" customWidth="1"/>
-    <col min="15" max="15" width="18.26953125" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" customWidth="1"/>
-    <col min="17" max="17" width="23.54296875" customWidth="1"/>
-    <col min="18" max="18" width="30.81640625" customWidth="1"/>
-    <col min="19" max="19" width="25.7265625" customWidth="1"/>
-    <col min="20" max="22" width="25.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="7" max="7" width="25.54296875" customWidth="1"/>
+    <col min="8" max="8" width="22.26953125" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="10" width="32.1796875" customWidth="1"/>
+    <col min="11" max="11" width="41.1796875" customWidth="1"/>
+    <col min="12" max="12" width="35.26953125" customWidth="1"/>
+    <col min="13" max="13" width="39.7265625" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" customWidth="1"/>
+    <col min="15" max="15" width="21.7265625" customWidth="1"/>
+    <col min="16" max="16" width="18.26953125" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" customWidth="1"/>
+    <col min="18" max="18" width="23.54296875" customWidth="1"/>
+    <col min="19" max="19" width="30.81640625" customWidth="1"/>
+    <col min="20" max="20" width="25.7265625" customWidth="1"/>
+    <col min="21" max="23" width="25.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7195,68 +7199,71 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -7267,11 +7274,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
@@ -7297,11 +7304,11 @@
         <v>12</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="O2" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="P2" s="12" t="s">
         <v>12</v>
       </c>
@@ -7324,11 +7331,14 @@
         <v>12</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="O3" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="P3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\24Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE51F776-D5FC-41EC-A937-E26A8DBD3F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D977BC-C5CE-467F-AB96-A5F33EA6757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="355">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -7160,36 +7160,36 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" customWidth="1"/>
-    <col min="8" max="8" width="22.26953125" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" customWidth="1"/>
-    <col min="10" max="10" width="32.1796875" customWidth="1"/>
-    <col min="11" max="11" width="41.1796875" customWidth="1"/>
-    <col min="12" max="12" width="35.26953125" customWidth="1"/>
-    <col min="13" max="13" width="39.7265625" customWidth="1"/>
-    <col min="14" max="14" width="18.1796875" customWidth="1"/>
-    <col min="15" max="15" width="21.7265625" customWidth="1"/>
-    <col min="16" max="16" width="18.26953125" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" customWidth="1"/>
-    <col min="18" max="18" width="23.54296875" customWidth="1"/>
-    <col min="19" max="19" width="30.81640625" customWidth="1"/>
-    <col min="20" max="20" width="25.7265625" customWidth="1"/>
-    <col min="21" max="23" width="25.7265625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="21.54296875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
+    <col min="8" max="8" width="25.54296875" customWidth="1"/>
+    <col min="9" max="9" width="22.26953125" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="32.1796875" customWidth="1"/>
+    <col min="12" max="12" width="41.1796875" customWidth="1"/>
+    <col min="13" max="13" width="35.26953125" customWidth="1"/>
+    <col min="14" max="14" width="39.7265625" customWidth="1"/>
+    <col min="15" max="15" width="18.1796875" customWidth="1"/>
+    <col min="16" max="16" width="21.7265625" customWidth="1"/>
+    <col min="17" max="17" width="18.26953125" customWidth="1"/>
+    <col min="18" max="18" width="17.453125" customWidth="1"/>
+    <col min="19" max="19" width="23.54296875" customWidth="1"/>
+    <col min="20" max="20" width="30.81640625" customWidth="1"/>
+    <col min="21" max="21" width="25.7265625" customWidth="1"/>
+    <col min="22" max="24" width="25.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7202,68 +7202,71 @@
       <c r="D1" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -7277,11 +7280,11 @@
         <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
@@ -7307,11 +7310,11 @@
         <v>12</v>
       </c>
       <c r="O2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="Q2" s="12" t="s">
         <v>12</v>
       </c>
@@ -7334,11 +7337,14 @@
         <v>12</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="P3" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7888,15 +7894,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -7904,6 +7901,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7926,14 +7932,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7943,6 +7941,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\24Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D977BC-C5CE-467F-AB96-A5F33EA6757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EA5D79-4007-42E2-893F-C23C2B070677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -1120,7 +1120,7 @@
     <t>HEARING_PACKET_SUBMITTED_TO_COURT_DATE</t>
   </si>
   <si>
-    <t>COURT_REPORT_TAB</t>
+    <t>COURT_REPORTS_TAB</t>
   </si>
 </sst>
 </file>
@@ -7163,7 +7163,7 @@
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\24Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EA5D79-4007-42E2-893F-C23C2B070677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F9FD55-7124-40E2-B41E-32B5F0B2959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="356">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1121,6 +1121,9 @@
   </si>
   <si>
     <t>COURT_REPORTS_TAB</t>
+  </si>
+  <si>
+    <t>COURT_REPORT_ID</t>
   </si>
 </sst>
 </file>
@@ -7160,10 +7163,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7187,9 +7190,10 @@
     <col min="20" max="20" width="30.81640625" customWidth="1"/>
     <col min="21" max="21" width="25.7265625" customWidth="1"/>
     <col min="22" max="24" width="25.7265625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="25.7265625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7265,8 +7269,11 @@
       <c r="Y1" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Z1" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
@@ -7342,8 +7349,11 @@
       <c r="Y2" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Q3" s="1"/>
     </row>
   </sheetData>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\24Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F9FD55-7124-40E2-B41E-32B5F0B2959A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DD05D6-7656-46D2-AA7A-D6E2EED49575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="355">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1040,9 +1040,6 @@
   </si>
   <si>
     <t>NOTICE_ID5</t>
-  </si>
-  <si>
-    <t>E-filling</t>
   </si>
   <si>
     <t>Detention Report</t>
@@ -4800,58 +4797,58 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" t="s">
         <v>330</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>331</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>332</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>333</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>334</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>335</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="M1" t="s">
         <v>336</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>337</v>
-      </c>
-      <c r="N1" t="s">
-        <v>338</v>
       </c>
       <c r="O1" t="s">
         <v>35</v>
       </c>
       <c r="P1" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q1" t="s">
         <v>339</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>340</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>341</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>342</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>343</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>344</v>
-      </c>
-      <c r="V1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -4871,28 +4868,28 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" t="s">
         <v>346</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>347</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>348</v>
       </c>
-      <c r="K2" t="s">
-        <v>349</v>
-      </c>
       <c r="L2" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
         <v>351</v>
-      </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>352</v>
       </c>
       <c r="Q2" t="s">
         <v>10</v>
@@ -5065,7 +5062,7 @@
         <v>204</v>
       </c>
       <c r="AF1" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG1" t="s">
         <v>222</v>
@@ -7165,8 +7162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7204,7 +7201,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>60</v>
@@ -7270,7 +7267,7 @@
         <v>35</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -7290,7 +7287,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>12</v>
@@ -7320,7 +7317,7 @@
         <v>12</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>328</v>
+        <v>225</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>12</v>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\24Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\25Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DD05D6-7656-46D2-AA7A-D6E2EED49575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D52F59-2213-412F-B823-9ADFCD8BC27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="7" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="20" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="356">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1042,15 +1042,15 @@
     <t>NOTICE_ID5</t>
   </si>
   <si>
+    <t>E-filling</t>
+  </si>
+  <si>
     <t>Detention Report</t>
   </si>
   <si>
     <t>RELEASES_OF_INFORMATION_AND_CONSENT_FORM_TAB</t>
   </si>
   <si>
-    <t>releaseOfInformationAndConsentFormNewBtn</t>
-  </si>
-  <si>
     <t>FOLIO_PERSON_ID</t>
   </si>
   <si>
@@ -1114,13 +1114,16 @@
     <t>RELEASE_INFORMATION_AND_CONSENT_FORM_ID1</t>
   </si>
   <si>
-    <t>HEARING_PACKET_SUBMITTED_TO_COURT_DATE</t>
-  </si>
-  <si>
-    <t>COURT_REPORTS_TAB</t>
-  </si>
-  <si>
-    <t>COURT_REPORT_ID</t>
+    <t>CAPTURE_COURTDOCUMENT_ID</t>
+  </si>
+  <si>
+    <t>NOTICE_ID_INDEX</t>
+  </si>
+  <si>
+    <t>Oral - In-Person</t>
+  </si>
+  <si>
+    <t>RELEASES_OF_INFORMATION_AND_CONSENT_FORM_NEW_BTN</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1218,6 +1221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2589,10 +2593,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865F4B5F-C4C1-4846-86D8-5516A15FC0BB}">
-  <dimension ref="A1:AQ6"/>
+  <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J6"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2613,11 +2617,15 @@
     <col min="15" max="15" width="26.1796875" customWidth="1"/>
     <col min="16" max="16" width="9.81640625" customWidth="1"/>
     <col min="17" max="17" width="11.08984375" customWidth="1"/>
-    <col min="42" max="42" width="11.81640625" customWidth="1"/>
-    <col min="43" max="43" width="11.90625" customWidth="1"/>
+    <col min="18" max="18" width="11.08984375" style="8" customWidth="1"/>
+    <col min="19" max="19" width="20.54296875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="25.36328125" customWidth="1"/>
+    <col min="21" max="21" width="31" style="8" customWidth="1"/>
+    <col min="45" max="45" width="11.81640625" customWidth="1"/>
+    <col min="46" max="46" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" s="14" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2670,85 +2678,94 @@
         <v>300</v>
       </c>
       <c r="R1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="U1" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AR1" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2795,14 +2812,11 @@
         <v>12</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="S2" s="8" t="s">
         <v>12</v>
       </c>
@@ -2878,8 +2892,17 @@
       <c r="AQ2" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2911,7 +2934,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>179</v>
@@ -2932,16 +2955,16 @@
         <v>324</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="S3" s="8">
+        <v>1</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="U3" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V3" s="8" t="s">
         <v>10</v>
@@ -3009,8 +3032,17 @@
       <c r="AQ3" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3042,7 +3074,7 @@
         <v>9</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>179</v>
@@ -3063,16 +3095,16 @@
         <v>325</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="S4" s="8">
+        <v>2</v>
       </c>
       <c r="T4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>10</v>
@@ -3140,8 +3172,17 @@
       <c r="AQ4" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3173,7 +3214,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>179</v>
@@ -3194,16 +3235,16 @@
         <v>326</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="S5" s="8">
+        <v>3</v>
       </c>
       <c r="T5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V5" s="8" t="s">
         <v>10</v>
@@ -3271,8 +3312,17 @@
       <c r="AQ5" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AR5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -3304,7 +3354,7 @@
         <v>9</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>179</v>
@@ -3325,16 +3375,16 @@
         <v>327</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="S6" s="8">
+        <v>4</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>10</v>
@@ -3401,6 +3451,20 @@
       </c>
       <c r="AQ6" s="8" t="s">
         <v>10</v>
+      </c>
+      <c r="AR6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="R7" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4774,148 +4838,160 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53244731-B345-4579-9EA1-6DF92DB7F6ED}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="49.08984375" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="8"/>
+    <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>329</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D1" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E1" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q1" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="S1" t="s">
+      <c r="R1" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S1" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="U1" t="s">
+      <c r="T1" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="V1" t="s">
+      <c r="U1" s="12" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:21" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="J2" t="s">
+      <c r="I2" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="N2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="M2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="P2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4924,10 +5000,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4963,11 +5039,10 @@
     <col min="29" max="29" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="38.453125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="27.90625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5061,14 +5136,11 @@
       <c r="AE1" t="s">
         <v>204</v>
       </c>
-      <c r="AF1" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AF1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>127</v>
       </c>
@@ -5165,11 +5237,8 @@
       <c r="AF2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AG2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>127</v>
       </c>
@@ -5263,11 +5332,8 @@
       <c r="AF3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AG3" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>127</v>
       </c>
@@ -5364,11 +5430,8 @@
       <c r="AF4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>127</v>
       </c>
@@ -5465,11 +5528,8 @@
       <c r="AF5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>219</v>
       </c>
@@ -5563,15 +5623,12 @@
       <c r="AE6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AF6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="10"/>
-    </row>
-    <row r="7" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="10"/>
+    </row>
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -5665,14 +5722,11 @@
       <c r="AE7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG7" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
@@ -5766,14 +5820,11 @@
       <c r="AE8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AF8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG8" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
@@ -5867,14 +5918,11 @@
       <c r="AE9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AF9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG9" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -5968,111 +6016,7 @@
       <c r="AE10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AF10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG10" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12">
-        <v>5</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG11" s="12" t="s">
+      <c r="AF10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7160,37 +7104,35 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87EA6C99-F580-4B4C-85D4-6F4C5FBF99B1}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="5" width="21.54296875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" customWidth="1"/>
-    <col min="8" max="8" width="25.54296875" customWidth="1"/>
-    <col min="9" max="9" width="22.26953125" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" customWidth="1"/>
-    <col min="11" max="11" width="32.1796875" customWidth="1"/>
-    <col min="12" max="12" width="41.1796875" customWidth="1"/>
-    <col min="13" max="13" width="35.26953125" customWidth="1"/>
-    <col min="14" max="14" width="39.7265625" customWidth="1"/>
-    <col min="15" max="15" width="18.1796875" customWidth="1"/>
-    <col min="16" max="16" width="21.7265625" customWidth="1"/>
-    <col min="17" max="17" width="18.26953125" customWidth="1"/>
-    <col min="18" max="18" width="17.453125" customWidth="1"/>
-    <col min="19" max="19" width="23.54296875" customWidth="1"/>
-    <col min="20" max="20" width="30.81640625" customWidth="1"/>
-    <col min="21" max="21" width="25.7265625" customWidth="1"/>
-    <col min="22" max="24" width="25.7265625" style="4" customWidth="1"/>
-    <col min="26" max="26" width="25.7265625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="32.1796875" customWidth="1"/>
+    <col min="10" max="10" width="41.1796875" customWidth="1"/>
+    <col min="11" max="11" width="35.26953125" customWidth="1"/>
+    <col min="12" max="12" width="39.7265625" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" customWidth="1"/>
+    <col min="15" max="15" width="18.26953125" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" customWidth="1"/>
+    <col min="17" max="17" width="23.54296875" customWidth="1"/>
+    <col min="18" max="18" width="30.81640625" customWidth="1"/>
+    <col min="19" max="19" width="25.7265625" customWidth="1"/>
+    <col min="20" max="22" width="25.7265625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7200,158 +7142,140 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>60</v>
+      <c r="D1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Q3" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7684,6 +7608,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -7900,26 +7843,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6095730-1FE4-4AF8-B1FC-43F1685DBB31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7938,24 +7880,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\25Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D52F59-2213-412F-B823-9ADFCD8BC27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCB292-99DE-4F67-90B5-62AC7020CAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="18" activeTab="20" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
   <sheets>
     <sheet name="CourtCase" sheetId="14" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="357">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>RELEASES_OF_INFORMATION_AND_CONSENT_FORM_NEW_BTN</t>
+  </si>
+  <si>
+    <t>HEARING_PACKET_SUBMITTED_TO_COURT_DATE</t>
   </si>
 </sst>
 </file>
@@ -4840,8 +4843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53244731-B345-4579-9EA1-6DF92DB7F6ED}">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5000,10 +5003,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5039,10 +5042,10 @@
     <col min="29" max="29" width="29.6328125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="38.453125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="42.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5136,11 +5139,14 @@
       <c r="AE1" t="s">
         <v>204</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="AG1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>127</v>
       </c>
@@ -5237,8 +5243,11 @@
       <c r="AF2" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>127</v>
       </c>
@@ -5332,8 +5341,11 @@
       <c r="AF3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AG3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>127</v>
       </c>
@@ -5430,8 +5442,11 @@
       <c r="AF4" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AG4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>127</v>
       </c>
@@ -5528,8 +5543,11 @@
       <c r="AF5" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AG5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>219</v>
       </c>
@@ -5623,12 +5641,15 @@
       <c r="AE6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AF6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="10"/>
-    </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="10"/>
+    </row>
+    <row r="7" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
@@ -5722,11 +5743,14 @@
       <c r="AE7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
@@ -5820,11 +5844,14 @@
       <c r="AE8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AF8" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
@@ -5918,11 +5945,14 @@
       <c r="AE9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AF9" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AF9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
@@ -6016,7 +6046,111 @@
       <c r="AE10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AF10" s="12" t="s">
+      <c r="AF10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7608,6 +7742,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -7615,15 +7758,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7844,19 +7978,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A547CC01-0365-403A-A545-C2864CF28659}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C54270-4951-4A36-B4D4-E2C3DAF422AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\25Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCB292-99DE-4F67-90B5-62AC7020CAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9793305B-127E-4CE2-B0A0-9922670842F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="357">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1148,7 +1148,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1191,6 +1191,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1204,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1225,6 +1231,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5003,10 +5010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5851,104 +5858,104 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12">
+      <c r="B9" s="16">
+        <v>1</v>
+      </c>
+      <c r="C9" s="16">
         <v>3</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="D9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9" s="12" t="s">
+      <c r="K9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="X9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="12" t="s">
+      <c r="X9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="AA9" s="12" t="s">
+      <c r="AA9" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="AB9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG9" s="12" t="s">
+      <c r="AB9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG9" s="16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6151,6 +6158,107 @@
         <v>10</v>
       </c>
       <c r="AG11" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\25Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9793305B-127E-4CE2-B0A0-9922670842F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B640F33-8F9B-48EE-A619-CC2CA03496DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="357">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -5010,10 +5010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26914741-3645-4F58-AEBC-5721872C6FC4}">
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5780,7 +5780,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>12</v>
@@ -6158,107 +6158,6 @@
         <v>10</v>
       </c>
       <c r="AG11" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12">
-        <v>6</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG12" s="12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Courts.xlsx
+++ b/Courts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\25Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B640F33-8F9B-48EE-A619-CC2CA03496DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87FF787-B194-4F9F-860C-4BBF21BBE004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="2" xr2:uid="{3C643D6F-8FEB-4D64-B841-11C53B1B4462}"/>
   </bookViews>
@@ -2208,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE28A1-6BE4-48AF-9A65-60EB9C68D2E0}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5013,7 +5013,7 @@
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
